--- a/biology/Zoologie/Acrobate_pygmée/Acrobate_pygmée.xlsx
+++ b/biology/Zoologie/Acrobate_pygmée/Acrobate_pygmée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acrobate_pygm%C3%A9e</t>
+          <t>Acrobate_pygmée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Acrobate pygmée (Acrobates pygmaeus), appelé communément Marsupial volant pygmée, est une espèce de marsupiaux de la famille des Acrobatidae, présents dans l'est de l'Australie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acrobate_pygm%C3%A9e</t>
+          <t>Acrobate_pygmée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 6,5 à 8 cm avec une queue de 7 à 8 cm et pèse 9 à 15 g. La queue de ce marsupial très agile est garnie de rangées de poils raides et sa surface alaire est grande par rapport à la longueur de ses membres. Il s'agrippe aux branches avec ses griffes acérées et s'accroche aux surfaces les plus lisses, même au verre, grâce aux gros coussinets qui garnissent ses doigts.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acrobate_pygm%C3%A9e</t>
+          <t>Acrobate_pygmée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Lieu de vie et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en groupes dans les forêts tempérées et les forêts tropicales humides.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acrobate_pygm%C3%A9e</t>
+          <t>Acrobate_pygmée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il recueille nectar, pollen et petits insectes dans les fleurs avec sa langue en forme de brosse.
 </t>
